--- a/data/orgs_manual_coding_sample_am.xlsx
+++ b/data/orgs_manual_coding_sample_am.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="99" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="78" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
   <si>
     <t>repository_organization</t>
   </si>
@@ -924,9 +924,6 @@
   </si>
   <si>
     <t>http://www.github.com/NIFEUP</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>NIFTYCloud-C4SA</t>
@@ -3590,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:E560"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A217" view="normal" windowProtection="false" workbookViewId="0" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100">
-      <selection activeCell="C249" activeCellId="0" pane="topLeft" sqref="C249"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A405" view="normal" windowProtection="false" workbookViewId="0" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100">
+      <selection activeCell="C437" activeCellId="0" pane="topLeft" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5121,16 +5118,13 @@
       <c r="B139" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>3</v>
@@ -5138,10 +5132,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>1</v>
@@ -5149,10 +5143,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2</v>
@@ -5160,10 +5154,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>290</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>3</v>
@@ -5171,10 +5165,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>292</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>3</v>
@@ -5182,10 +5176,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2</v>
@@ -5193,10 +5187,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>296</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>3</v>
@@ -5204,10 +5198,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>1</v>
@@ -5215,10 +5209,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2</v>
@@ -5226,10 +5220,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>1</v>
@@ -5237,10 +5231,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>1</v>
@@ -5248,10 +5242,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2</v>
@@ -5259,10 +5253,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>3</v>
@@ -5270,10 +5264,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>310</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>1</v>
@@ -5281,10 +5275,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>1</v>
@@ -5292,10 +5286,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>1</v>
@@ -5303,10 +5297,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>316</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>1</v>
@@ -5314,10 +5308,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>318</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>3</v>
@@ -5325,10 +5319,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>320</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>3</v>
@@ -5336,10 +5330,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>322</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>1</v>
@@ -5347,10 +5341,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>3</v>
@@ -5358,10 +5352,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2</v>
@@ -5369,10 +5363,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>1</v>
@@ -5380,10 +5374,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>1</v>
@@ -5391,18 +5385,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>1</v>
@@ -5410,10 +5404,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>336</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>3</v>
@@ -5421,10 +5415,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>338</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>3</v>
@@ -5432,10 +5426,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B168" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>340</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>3</v>
@@ -5443,10 +5437,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B169" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>3</v>
@@ -5454,10 +5448,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>344</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>3</v>
@@ -5465,10 +5459,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>3</v>
@@ -5476,10 +5470,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>348</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>3</v>
@@ -5487,10 +5481,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="173">
       <c r="A173" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2</v>
@@ -5498,10 +5492,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>352</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>1</v>
@@ -5509,10 +5503,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>354</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>1</v>
@@ -5520,10 +5514,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>356</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2</v>
@@ -5531,10 +5525,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>358</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>3</v>
@@ -5542,10 +5536,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>359</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>360</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>3</v>
@@ -5553,10 +5547,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>362</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>1</v>
@@ -5564,10 +5558,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>364</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>3</v>
@@ -5575,10 +5569,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>3</v>
@@ -5586,10 +5580,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>1</v>
@@ -5597,10 +5591,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>370</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2</v>
@@ -5608,10 +5602,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>3</v>
@@ -5619,10 +5613,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>1</v>
@@ -5630,10 +5624,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>1</v>
@@ -5641,18 +5635,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>3</v>
@@ -5660,10 +5654,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2</v>
@@ -5671,10 +5665,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>1</v>
@@ -5682,10 +5676,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>3</v>
@@ -5693,10 +5687,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>388</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>1</v>
@@ -5704,10 +5698,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>390</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>3</v>
@@ -5715,10 +5709,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B194" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>392</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2</v>
@@ -5726,10 +5720,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>3</v>
@@ -5737,10 +5731,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>396</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2</v>
@@ -5748,10 +5742,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2</v>
@@ -5759,10 +5753,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>1</v>
@@ -5770,10 +5764,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>1</v>
@@ -5781,10 +5775,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="200">
       <c r="A200" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2</v>
@@ -5792,10 +5786,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="201">
       <c r="A201" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>406</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>3</v>
@@ -5803,10 +5797,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>1</v>
@@ -5814,10 +5808,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>3</v>
@@ -5825,10 +5819,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>412</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>1</v>
@@ -5836,10 +5830,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>3</v>
@@ -5847,10 +5841,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="206">
       <c r="A206" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B206" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>416</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2</v>
@@ -5858,10 +5852,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>1</v>
@@ -5869,10 +5863,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B208" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>3</v>
@@ -5880,10 +5874,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>3</v>
@@ -5891,10 +5885,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="210">
       <c r="A210" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B210" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>3</v>
@@ -5902,10 +5896,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="211">
       <c r="A211" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>1</v>
@@ -5913,10 +5907,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="212">
       <c r="A212" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B212" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>428</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2</v>
@@ -5924,10 +5918,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="213">
       <c r="A213" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>1</v>
@@ -5935,10 +5929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="214">
       <c r="A214" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>432</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>3</v>
@@ -5946,18 +5940,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="215">
       <c r="A215" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="216">
       <c r="A216" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>3</v>
@@ -5965,26 +5959,26 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="217">
       <c r="A217" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B217" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="218">
       <c r="A218" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="219">
       <c r="A219" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>442</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>1</v>
@@ -5992,10 +5986,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="220">
       <c r="A220" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>444</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>3</v>
@@ -6003,10 +5997,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="221">
       <c r="A221" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B221" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>446</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>3</v>
@@ -6014,10 +6008,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="222">
       <c r="A222" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>2</v>
@@ -6025,10 +6019,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="223">
       <c r="A223" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>450</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>3</v>
@@ -6036,10 +6030,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="224">
       <c r="A224" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>3</v>
@@ -6047,10 +6041,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="225">
       <c r="A225" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>454</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>3</v>
@@ -6058,18 +6052,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="226">
       <c r="A226" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>455</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="227">
       <c r="A227" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B227" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>458</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>2</v>
@@ -6077,10 +6071,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="228">
       <c r="A228" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B228" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>460</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>3</v>
@@ -6088,10 +6082,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="229">
       <c r="A229" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>3</v>
@@ -6099,10 +6093,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="230">
       <c r="A230" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>1</v>
@@ -6110,10 +6104,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="231">
       <c r="A231" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>1</v>
@@ -6121,10 +6115,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="232">
       <c r="A232" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>3</v>
@@ -6132,10 +6126,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="233">
       <c r="A233" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>3</v>
@@ -6143,10 +6137,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="234">
       <c r="A234" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>472</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>2</v>
@@ -6154,10 +6148,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="235">
       <c r="A235" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>3</v>
@@ -6165,10 +6159,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="236">
       <c r="A236" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>476</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>1</v>
@@ -6176,10 +6170,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="237">
       <c r="A237" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>478</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>3</v>
@@ -6187,10 +6181,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="238">
       <c r="A238" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>2</v>
@@ -6198,10 +6192,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="239">
       <c r="A239" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>2</v>
@@ -6209,10 +6203,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="240">
       <c r="A240" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>484</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>2</v>
@@ -6220,10 +6214,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="241">
       <c r="A241" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B241" s="0" t="s">
         <v>485</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>486</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>1</v>
@@ -6231,10 +6225,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="242">
       <c r="A242" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>488</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>3</v>
@@ -6242,10 +6236,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="243">
       <c r="A243" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>489</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>490</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>3</v>
@@ -6253,10 +6247,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="244">
       <c r="A244" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>3</v>
@@ -6264,10 +6258,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="245">
       <c r="A245" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>2</v>
@@ -6275,18 +6269,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="246">
       <c r="A246" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="247">
       <c r="A247" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B247" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>1</v>
@@ -6294,10 +6288,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="248">
       <c r="A248" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>500</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>3</v>
@@ -6305,10 +6299,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="249">
       <c r="A249" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>502</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>3</v>
@@ -6316,2490 +6310,3021 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="250">
       <c r="A250" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="B250" s="0" t="s">
-        <v>504</v>
+      <c r="C250" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="251">
       <c r="A251" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>506</v>
+      <c r="C251" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="252">
       <c r="A252" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B252" s="0" t="s">
-        <v>508</v>
+      <c r="C252" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="253">
       <c r="A253" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B253" s="0" t="s">
-        <v>510</v>
+      <c r="C253" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="254">
       <c r="A254" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B254" s="0" t="s">
-        <v>512</v>
+      <c r="C254" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="255">
       <c r="A255" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="B255" s="0" t="s">
-        <v>514</v>
+      <c r="C255" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="256">
       <c r="A256" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="B256" s="0" t="s">
-        <v>516</v>
+      <c r="C256" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="257">
       <c r="A257" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B257" s="0" t="s">
-        <v>518</v>
+      <c r="C257" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="258">
       <c r="A258" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="B258" s="0" t="s">
-        <v>520</v>
+      <c r="C258" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="259">
       <c r="A259" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="B259" s="0" t="s">
-        <v>522</v>
+      <c r="C259" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="260">
       <c r="A260" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B260" s="0" t="s">
-        <v>524</v>
+      <c r="C260" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="261">
       <c r="A261" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B261" s="0" t="s">
-        <v>526</v>
+      <c r="C261" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="262">
       <c r="A262" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="B262" s="0" t="s">
-        <v>528</v>
+      <c r="C262" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="263">
       <c r="A263" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="B263" s="0" t="s">
-        <v>530</v>
+      <c r="C263" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="264">
       <c r="A264" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="B264" s="0" t="s">
-        <v>532</v>
+      <c r="C264" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="265">
       <c r="A265" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="266">
       <c r="A266" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B266" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="267">
       <c r="A267" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="B267" s="0" t="s">
-        <v>538</v>
+      <c r="C267" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="268">
       <c r="A268" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B268" s="0" t="s">
-        <v>540</v>
+      <c r="C268" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="269">
       <c r="A269" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="B269" s="0" t="s">
-        <v>542</v>
+      <c r="C269" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="270">
       <c r="A270" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="B270" s="0" t="s">
-        <v>544</v>
+      <c r="C270" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="271">
       <c r="A271" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B271" s="0" t="s">
-        <v>546</v>
+      <c r="C271" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="272">
       <c r="A272" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="B272" s="0" t="s">
-        <v>548</v>
+      <c r="C272" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="273">
       <c r="A273" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="B273" s="0" t="s">
-        <v>550</v>
+      <c r="C273" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="274">
       <c r="A274" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="B274" s="0" t="s">
-        <v>552</v>
+      <c r="C274" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="275">
       <c r="A275" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="B275" s="0" t="s">
-        <v>554</v>
+      <c r="C275" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="276">
       <c r="A276" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="B276" s="0" t="s">
-        <v>556</v>
+      <c r="C276" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="277">
       <c r="A277" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="B277" s="0" t="s">
-        <v>558</v>
+      <c r="C277" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="278">
       <c r="A278" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="B278" s="0" t="s">
-        <v>560</v>
+      <c r="C278" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="279">
       <c r="A279" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="B279" s="0" t="s">
-        <v>562</v>
+      <c r="C279" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="280">
       <c r="A280" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="B280" s="0" t="s">
-        <v>564</v>
+      <c r="C280" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="281">
       <c r="A281" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="B281" s="0" t="s">
-        <v>566</v>
+      <c r="C281" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="282">
       <c r="A282" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="283">
       <c r="A283" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="B283" s="0" t="s">
-        <v>570</v>
+      <c r="C283" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="284">
       <c r="A284" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="285">
       <c r="A285" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="B285" s="0" t="s">
-        <v>574</v>
+      <c r="C285" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="286">
       <c r="A286" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="B286" s="0" t="s">
-        <v>576</v>
+      <c r="C286" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="287">
       <c r="A287" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="B287" s="0" t="s">
-        <v>578</v>
+      <c r="C287" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="288">
       <c r="A288" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>579</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>580</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="289">
       <c r="A289" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B289" s="0" t="s">
-        <v>582</v>
+      <c r="C289" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="290">
       <c r="A290" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="B290" s="0" t="s">
-        <v>584</v>
+      <c r="C290" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="291">
       <c r="A291" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="B291" s="0" t="s">
-        <v>586</v>
+      <c r="C291" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="292">
       <c r="A292" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="B292" s="0" t="s">
-        <v>588</v>
+      <c r="C292" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="293">
       <c r="A293" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B293" s="0" t="s">
-        <v>590</v>
+      <c r="C293" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="294">
       <c r="A294" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="B294" s="0" t="s">
-        <v>592</v>
+      <c r="C294" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="295">
       <c r="A295" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="B295" s="0" t="s">
-        <v>594</v>
+      <c r="C295" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="296">
       <c r="A296" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="B296" s="0" t="s">
-        <v>596</v>
+      <c r="C296" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="297">
       <c r="A297" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="B297" s="0" t="s">
-        <v>598</v>
+      <c r="C297" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="298">
       <c r="A298" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="B298" s="0" t="s">
-        <v>600</v>
+      <c r="C298" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="299">
       <c r="A299" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="B299" s="0" t="s">
-        <v>602</v>
+      <c r="C299" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="300">
       <c r="A300" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="B300" s="0" t="s">
-        <v>604</v>
+      <c r="C300" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="301">
       <c r="A301" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="B301" s="0" t="s">
-        <v>606</v>
+      <c r="C301" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="302">
       <c r="A302" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B302" s="0" t="s">
-        <v>608</v>
+      <c r="C302" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="303">
       <c r="A303" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="B303" s="0" t="s">
-        <v>610</v>
+      <c r="C303" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="304">
       <c r="A304" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="B304" s="0" t="s">
-        <v>612</v>
+      <c r="C304" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="305">
       <c r="A305" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="B305" s="0" t="s">
-        <v>614</v>
+      <c r="C305" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="306">
       <c r="A306" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B306" s="0" t="s">
-        <v>616</v>
+      <c r="C306" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="307">
       <c r="A307" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="B307" s="0" t="s">
-        <v>618</v>
+      <c r="C307" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="308">
       <c r="A308" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="B308" s="0" t="s">
-        <v>620</v>
+      <c r="C308" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="309">
       <c r="A309" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="B309" s="0" t="s">
-        <v>622</v>
+      <c r="C309" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="310">
       <c r="A310" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B310" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="B310" s="0" t="s">
-        <v>624</v>
+      <c r="C310" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="311">
       <c r="A311" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="B311" s="0" t="s">
-        <v>626</v>
+      <c r="C311" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="312">
       <c r="A312" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B312" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="B312" s="0" t="s">
-        <v>628</v>
+      <c r="C312" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="313">
       <c r="A313" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="B313" s="0" t="s">
-        <v>630</v>
+      <c r="C313" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="314">
       <c r="A314" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="B314" s="0" t="s">
-        <v>632</v>
+      <c r="C314" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="315">
       <c r="A315" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="B315" s="0" t="s">
-        <v>634</v>
+      <c r="C315" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="316">
       <c r="A316" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="B316" s="0" t="s">
-        <v>636</v>
+      <c r="C316" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="317">
       <c r="A317" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B317" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="B317" s="0" t="s">
-        <v>638</v>
+      <c r="C317" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="318">
       <c r="A318" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="B318" s="0" t="s">
-        <v>640</v>
+      <c r="C318" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="319">
       <c r="A319" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="B319" s="0" t="s">
-        <v>642</v>
+      <c r="C319" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="320">
       <c r="A320" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="B320" s="0" t="s">
-        <v>644</v>
+      <c r="C320" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="321">
       <c r="A321" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="B321" s="0" t="s">
-        <v>646</v>
+      <c r="C321" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="322">
       <c r="A322" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="B322" s="0" t="s">
-        <v>648</v>
+      <c r="C322" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="323">
       <c r="A323" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="B323" s="0" t="s">
-        <v>650</v>
+      <c r="C323" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="324">
       <c r="A324" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="B324" s="0" t="s">
-        <v>652</v>
+      <c r="C324" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="325">
       <c r="A325" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="B325" s="0" t="s">
-        <v>654</v>
+      <c r="C325" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="326">
       <c r="A326" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="B326" s="0" t="s">
-        <v>656</v>
+      <c r="C326" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="327">
       <c r="A327" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B327" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="B327" s="0" t="s">
-        <v>658</v>
+      <c r="C327" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="328">
       <c r="A328" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="B328" s="0" t="s">
-        <v>660</v>
+      <c r="C328" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="329">
       <c r="A329" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B329" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B329" s="0" t="s">
-        <v>662</v>
+      <c r="C329" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="330">
       <c r="A330" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B330" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="B330" s="0" t="s">
-        <v>664</v>
+      <c r="C330" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="331">
       <c r="A331" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B331" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="B331" s="0" t="s">
-        <v>666</v>
+      <c r="C331" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="332">
       <c r="A332" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="B332" s="0" t="s">
-        <v>668</v>
+      <c r="C332" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="333">
       <c r="A333" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B333" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="B333" s="0" t="s">
-        <v>670</v>
+      <c r="C333" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="334">
       <c r="A334" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B334" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="B334" s="0" t="s">
-        <v>672</v>
+      <c r="C334" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="335">
       <c r="A335" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B335" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="B335" s="0" t="s">
-        <v>674</v>
+      <c r="C335" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="336">
       <c r="A336" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B336" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="B336" s="0" t="s">
-        <v>676</v>
+      <c r="C336" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="337">
       <c r="A337" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B337" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="B337" s="0" t="s">
-        <v>678</v>
+      <c r="C337" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="338">
       <c r="A338" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B338" s="0" t="s">
-        <v>680</v>
+      <c r="C338" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="339">
       <c r="A339" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B339" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="B339" s="0" t="s">
-        <v>682</v>
+      <c r="C339" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="340">
       <c r="A340" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B340" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="B340" s="0" t="s">
-        <v>684</v>
+      <c r="C340" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="341">
       <c r="A341" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B341" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="B341" s="0" t="s">
-        <v>686</v>
+      <c r="C341" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="342">
       <c r="A342" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B342" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="B342" s="0" t="s">
-        <v>688</v>
+      <c r="C342" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="343">
       <c r="A343" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B343" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="B343" s="0" t="s">
-        <v>690</v>
+      <c r="C343" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="344">
       <c r="A344" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B344" s="0" t="s">
         <v>691</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="345">
       <c r="A345" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B345" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="B345" s="0" t="s">
-        <v>694</v>
+      <c r="C345" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="346">
       <c r="A346" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B346" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="B346" s="0" t="s">
-        <v>696</v>
+      <c r="C346" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="347">
       <c r="A347" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B347" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="B347" s="0" t="s">
-        <v>698</v>
+      <c r="C347" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="348">
       <c r="A348" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B348" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="B348" s="0" t="s">
-        <v>700</v>
+      <c r="C348" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="349">
       <c r="A349" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B349" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="B349" s="0" t="s">
-        <v>702</v>
+      <c r="C349" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="350">
       <c r="A350" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B350" s="0" t="s">
         <v>703</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>704</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="351">
       <c r="A351" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B351" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="B351" s="0" t="s">
-        <v>706</v>
+      <c r="C351" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="352">
       <c r="A352" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B352" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="B352" s="0" t="s">
-        <v>708</v>
+      <c r="C352" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="353">
       <c r="A353" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B353" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="B353" s="0" t="s">
-        <v>710</v>
+      <c r="C353" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="354">
       <c r="A354" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B354" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="B354" s="0" t="s">
-        <v>712</v>
+      <c r="C354" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="355">
       <c r="A355" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B355" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="B355" s="0" t="s">
-        <v>714</v>
+      <c r="C355" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="356">
       <c r="A356" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B356" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="B356" s="0" t="s">
-        <v>716</v>
+      <c r="C356" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="357">
       <c r="A357" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B357" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="B357" s="0" t="s">
-        <v>718</v>
+      <c r="C357" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="358">
       <c r="A358" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B358" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="B358" s="0" t="s">
-        <v>720</v>
+      <c r="C358" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="359">
       <c r="A359" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B359" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="B359" s="0" t="s">
-        <v>722</v>
+      <c r="C359" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="360">
       <c r="A360" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B360" s="0" t="s">
-        <v>724</v>
+      <c r="C360" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="361">
       <c r="A361" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B361" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="B361" s="0" t="s">
-        <v>726</v>
+      <c r="C361" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="362">
       <c r="A362" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B362" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="B362" s="0" t="s">
-        <v>728</v>
+      <c r="C362" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="363">
       <c r="A363" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B363" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="B363" s="0" t="s">
-        <v>730</v>
+      <c r="C363" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="364">
       <c r="A364" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B364" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="B364" s="0" t="s">
-        <v>732</v>
+      <c r="C364" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="365">
       <c r="A365" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B365" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="B365" s="0" t="s">
-        <v>734</v>
+      <c r="C365" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="366">
       <c r="A366" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B366" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="B366" s="0" t="s">
-        <v>736</v>
+      <c r="C366" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="367">
       <c r="A367" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B367" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="368">
       <c r="A368" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B368" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="B368" s="0" t="s">
-        <v>740</v>
+      <c r="C368" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="369">
       <c r="A369" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B369" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="B369" s="0" t="s">
-        <v>742</v>
+      <c r="C369" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="370">
       <c r="A370" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B370" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="B370" s="0" t="s">
-        <v>744</v>
+      <c r="C370" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="371">
       <c r="A371" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B371" s="0" t="s">
         <v>745</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>746</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="372">
       <c r="A372" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B372" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>748</v>
+      <c r="C372" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="373">
       <c r="A373" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B373" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="B373" s="0" t="s">
-        <v>750</v>
+      <c r="C373" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="374">
       <c r="A374" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B374" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="B374" s="0" t="s">
-        <v>752</v>
+      <c r="C374" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="375">
       <c r="A375" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B375" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="B375" s="0" t="s">
-        <v>754</v>
+      <c r="C375" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="376">
       <c r="A376" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B376" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="B376" s="0" t="s">
-        <v>756</v>
+      <c r="C376" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="377">
       <c r="A377" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B377" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="B377" s="0" t="s">
-        <v>758</v>
+      <c r="C377" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="378">
       <c r="A378" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B378" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B378" s="0" t="s">
-        <v>760</v>
+      <c r="C378" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="379">
       <c r="A379" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B379" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="B379" s="0" t="s">
-        <v>762</v>
+      <c r="C379" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="380">
       <c r="A380" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B380" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="B380" s="0" t="s">
-        <v>764</v>
+      <c r="C380" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="381">
       <c r="A381" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B381" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="B381" s="0" t="s">
-        <v>766</v>
+      <c r="C381" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="382">
       <c r="A382" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B382" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="B382" s="0" t="s">
-        <v>768</v>
+      <c r="C382" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="383">
       <c r="A383" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B383" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="B383" s="0" t="s">
-        <v>770</v>
+      <c r="C383" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="384">
       <c r="A384" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B384" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="B384" s="0" t="s">
-        <v>772</v>
+      <c r="C384" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="385">
       <c r="A385" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B385" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="386">
       <c r="A386" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B386" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B386" s="0" t="s">
-        <v>776</v>
+      <c r="C386" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="387">
       <c r="A387" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B387" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="B387" s="0" t="s">
-        <v>778</v>
+      <c r="C387" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="388">
       <c r="A388" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B388" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="B388" s="0" t="s">
-        <v>780</v>
+      <c r="C388" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="389">
       <c r="A389" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B389" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="B389" s="0" t="s">
-        <v>782</v>
+      <c r="C389" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="390">
       <c r="A390" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B390" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="B390" s="0" t="s">
-        <v>784</v>
+      <c r="C390" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="391">
       <c r="A391" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B391" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="B391" s="0" t="s">
-        <v>786</v>
+      <c r="C391" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="392">
       <c r="A392" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B392" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="B392" s="0" t="s">
-        <v>788</v>
+      <c r="C392" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="393">
       <c r="A393" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B393" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="B393" s="0" t="s">
-        <v>790</v>
+      <c r="C393" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="394">
       <c r="A394" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B394" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="B394" s="0" t="s">
-        <v>792</v>
+      <c r="C394" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="395">
       <c r="A395" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B395" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="B395" s="0" t="s">
-        <v>794</v>
+      <c r="C395" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="396">
       <c r="A396" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B396" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="B396" s="0" t="s">
-        <v>796</v>
+      <c r="C396" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="397">
       <c r="A397" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B397" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="B397" s="0" t="s">
-        <v>798</v>
+      <c r="C397" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="398">
       <c r="A398" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B398" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="B398" s="0" t="s">
-        <v>800</v>
+      <c r="C398" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="399">
       <c r="A399" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B399" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="B399" s="0" t="s">
-        <v>802</v>
+      <c r="C399" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="400">
       <c r="A400" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B400" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="B400" s="0" t="s">
-        <v>804</v>
+      <c r="C400" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="401">
       <c r="A401" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B401" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="B401" s="0" t="s">
-        <v>806</v>
+      <c r="C401" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="402">
       <c r="A402" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B402" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="B402" s="0" t="s">
-        <v>808</v>
+      <c r="C402" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="403">
       <c r="A403" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B403" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="B403" s="0" t="s">
-        <v>810</v>
+      <c r="C403" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="404">
       <c r="A404" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B404" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="B404" s="0" t="s">
-        <v>812</v>
+      <c r="C404" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="405">
       <c r="A405" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B405" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="B405" s="0" t="s">
-        <v>814</v>
+      <c r="C405" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="406">
       <c r="A406" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B406" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="B406" s="0" t="s">
-        <v>816</v>
+      <c r="C406" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="407">
       <c r="A407" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B407" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="B407" s="0" t="s">
-        <v>818</v>
+      <c r="C407" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="408">
       <c r="A408" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B408" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="B408" s="0" t="s">
-        <v>820</v>
+      <c r="C408" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="409">
       <c r="A409" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B409" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="B409" s="0" t="s">
-        <v>822</v>
+      <c r="C409" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="410">
       <c r="A410" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B410" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="B410" s="0" t="s">
-        <v>824</v>
+      <c r="C410" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="411">
       <c r="A411" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B411" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="B411" s="0" t="s">
-        <v>826</v>
+      <c r="C411" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="412">
       <c r="A412" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B412" s="0" t="s">
         <v>827</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>828</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="413">
       <c r="A413" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B413" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="B413" s="0" t="s">
-        <v>830</v>
+      <c r="C413" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="414">
       <c r="A414" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B414" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="B414" s="0" t="s">
-        <v>832</v>
+      <c r="C414" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="415">
       <c r="A415" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B415" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="B415" s="0" t="s">
-        <v>834</v>
+      <c r="C415" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="416">
       <c r="A416" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B416" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="B416" s="0" t="s">
-        <v>836</v>
+      <c r="C416" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="417">
       <c r="A417" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B417" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="B417" s="0" t="s">
-        <v>838</v>
+      <c r="C417" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="418">
       <c r="A418" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B418" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="B418" s="0" t="s">
-        <v>840</v>
+      <c r="C418" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="419">
       <c r="A419" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B419" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="B419" s="0" t="s">
-        <v>842</v>
+      <c r="C419" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="420">
       <c r="A420" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B420" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="B420" s="0" t="s">
-        <v>844</v>
+      <c r="C420" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="421">
       <c r="A421" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B421" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="B421" s="0" t="s">
-        <v>846</v>
+      <c r="C421" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="422">
       <c r="A422" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B422" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="B422" s="0" t="s">
-        <v>848</v>
+      <c r="C422" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="423">
       <c r="A423" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B423" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="B423" s="0" t="s">
-        <v>850</v>
+      <c r="C423" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="424">
       <c r="A424" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B424" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="B424" s="0" t="s">
-        <v>852</v>
+      <c r="C424" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="425">
       <c r="A425" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B425" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="B425" s="0" t="s">
-        <v>854</v>
+      <c r="C425" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="426">
       <c r="A426" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B426" s="0" t="s">
         <v>855</v>
       </c>
-      <c r="B426" s="0" t="s">
-        <v>856</v>
+      <c r="C426" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="427">
       <c r="A427" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B427" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="B427" s="0" t="s">
-        <v>858</v>
+      <c r="C427" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="428">
       <c r="A428" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B428" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="B428" s="0" t="s">
-        <v>860</v>
+      <c r="C428" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="429">
       <c r="A429" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B429" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="B429" s="0" t="s">
-        <v>862</v>
+      <c r="C429" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="430">
       <c r="A430" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B430" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="B430" s="0" t="s">
-        <v>864</v>
+      <c r="C430" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="431">
       <c r="A431" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B431" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="B431" s="0" t="s">
-        <v>866</v>
+      <c r="C431" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="432">
       <c r="A432" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B432" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="B432" s="0" t="s">
-        <v>868</v>
+      <c r="C432" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="433">
       <c r="A433" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B433" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="B433" s="0" t="s">
-        <v>870</v>
+      <c r="C433" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="434">
       <c r="A434" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B434" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="B434" s="0" t="s">
-        <v>872</v>
+      <c r="C434" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="435">
       <c r="A435" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B435" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="B435" s="0" t="s">
-        <v>874</v>
+      <c r="C435" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="436">
       <c r="A436" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B436" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="B436" s="0" t="s">
-        <v>876</v>
+      <c r="C436" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="437">
       <c r="A437" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B437" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="B437" s="0" t="s">
-        <v>878</v>
+      <c r="C437" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="438">
       <c r="A438" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B438" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>880</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="439">
       <c r="A439" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B439" s="0" t="s">
         <v>881</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>882</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="440">
       <c r="A440" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B440" s="0" t="s">
         <v>883</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>884</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="441">
       <c r="A441" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B441" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>886</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="442">
       <c r="A442" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B442" s="0" t="s">
         <v>887</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>888</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="443">
       <c r="A443" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B443" s="0" t="s">
         <v>889</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>890</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="444">
       <c r="A444" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B444" s="0" t="s">
         <v>891</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>892</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="445">
       <c r="A445" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B445" s="0" t="s">
         <v>893</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>894</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="446">
       <c r="A446" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B446" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>896</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="447">
       <c r="A447" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B447" s="0" t="s">
         <v>897</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>898</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="448">
       <c r="A448" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B448" s="0" t="s">
         <v>899</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>900</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="449">
       <c r="A449" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B449" s="0" t="s">
         <v>901</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>902</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="450">
       <c r="A450" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B450" s="0" t="s">
         <v>903</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>904</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="451">
       <c r="A451" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B451" s="0" t="s">
         <v>905</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>906</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="452">
       <c r="A452" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B452" s="0" t="s">
         <v>907</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>908</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="453">
       <c r="A453" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B453" s="0" t="s">
         <v>909</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>910</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="454">
       <c r="A454" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B454" s="0" t="s">
         <v>911</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>912</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="455">
       <c r="A455" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B455" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="456">
       <c r="A456" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B456" s="0" t="s">
         <v>915</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>916</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="457">
       <c r="A457" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B457" s="0" t="s">
         <v>917</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>918</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="458">
       <c r="A458" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B458" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="459">
       <c r="A459" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B459" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>922</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="460">
       <c r="A460" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B460" s="0" t="s">
         <v>923</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>924</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="461">
       <c r="A461" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B461" s="0" t="s">
         <v>925</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>926</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="462">
       <c r="A462" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B462" s="0" t="s">
         <v>927</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="463">
       <c r="A463" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B463" s="0" t="s">
         <v>929</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>930</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="464">
       <c r="A464" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B464" s="0" t="s">
         <v>931</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>932</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="465">
       <c r="A465" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B465" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="466">
       <c r="A466" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B466" s="0" t="s">
         <v>935</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>936</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="467">
       <c r="A467" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B467" s="0" t="s">
         <v>937</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>938</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="468">
       <c r="A468" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B468" s="0" t="s">
         <v>939</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="469">
       <c r="A469" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B469" s="0" t="s">
         <v>941</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>942</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="470">
       <c r="A470" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B470" s="0" t="s">
         <v>943</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>944</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="471">
       <c r="A471" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B471" s="0" t="s">
         <v>945</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>946</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="472">
       <c r="A472" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B472" s="0" t="s">
         <v>947</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>948</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="473">
       <c r="A473" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B473" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>950</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="474">
       <c r="A474" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B474" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>952</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="475">
       <c r="A475" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B475" s="0" t="s">
         <v>953</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>954</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="476">
       <c r="A476" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B476" s="0" t="s">
         <v>955</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>956</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="477">
       <c r="A477" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B477" s="0" t="s">
         <v>957</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>958</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="478">
       <c r="A478" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B478" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>960</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="479">
       <c r="A479" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B479" s="0" t="s">
         <v>961</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>962</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="480">
       <c r="A480" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B480" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>964</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="481">
       <c r="A481" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B481" s="0" t="s">
         <v>965</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="482">
       <c r="A482" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B482" s="0" t="s">
         <v>967</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>968</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="483">
       <c r="A483" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B483" s="0" t="s">
         <v>969</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>970</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="484">
       <c r="A484" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B484" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>972</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="485">
       <c r="A485" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B485" s="0" t="s">
         <v>973</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>974</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="486">
       <c r="A486" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B486" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>976</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="487">
       <c r="A487" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B487" s="0" t="s">
         <v>977</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="488">
       <c r="A488" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B488" s="0" t="s">
         <v>979</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>980</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="489">
       <c r="A489" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B489" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>982</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="490">
       <c r="A490" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B490" s="0" t="s">
         <v>983</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>984</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="491">
       <c r="A491" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B491" s="0" t="s">
         <v>985</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>986</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="492">
       <c r="A492" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B492" s="0" t="s">
         <v>987</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="493">
       <c r="A493" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B493" s="0" t="s">
         <v>989</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="494">
       <c r="A494" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B494" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>992</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="495">
       <c r="A495" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B495" s="0" t="s">
         <v>993</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>994</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="496">
       <c r="A496" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B496" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>996</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="497">
       <c r="A497" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B497" s="0" t="s">
         <v>997</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="498">
       <c r="A498" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B498" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="499">
       <c r="A499" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B499" s="0" t="s">
         <v>1001</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="500">
       <c r="A500" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B500" s="0" t="s">
         <v>1003</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="501">
       <c r="A501" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B501" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="502">
       <c r="A502" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B502" s="0" t="s">
         <v>1007</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="503">
       <c r="A503" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B503" s="0" t="s">
         <v>1009</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="504">
       <c r="A504" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B504" s="0" t="s">
         <v>1011</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="505">
       <c r="A505" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B505" s="0" t="s">
         <v>1013</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="506">
       <c r="A506" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B506" s="0" t="s">
         <v>1015</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="507">
       <c r="A507" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B507" s="0" t="s">
         <v>1017</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="508">
       <c r="A508" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B508" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="509">
       <c r="A509" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B509" s="0" t="s">
         <v>1021</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="510">
       <c r="A510" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B510" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="511">
       <c r="A511" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B511" s="0" t="s">
         <v>1025</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="512">
       <c r="A512" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B512" s="0" t="s">
         <v>1027</v>
-      </c>
-      <c r="B512" s="0" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="513">
       <c r="A513" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B513" s="0" t="s">
         <v>1029</v>
-      </c>
-      <c r="B513" s="0" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="514">
       <c r="A514" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B514" s="0" t="s">
         <v>1031</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="515">
       <c r="A515" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B515" s="0" t="s">
         <v>1033</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="516">
       <c r="A516" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B516" s="0" t="s">
         <v>1035</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="517">
       <c r="A517" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B517" s="0" t="s">
         <v>1037</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="518">
       <c r="A518" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B518" s="0" t="s">
         <v>1039</v>
-      </c>
-      <c r="B518" s="0" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="519">
       <c r="A519" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B519" s="0" t="s">
         <v>1041</v>
-      </c>
-      <c r="B519" s="0" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="520">
       <c r="A520" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B520" s="0" t="s">
         <v>1043</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="521">
       <c r="A521" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B521" s="0" t="s">
         <v>1045</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="522">
       <c r="A522" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B522" s="0" t="s">
         <v>1047</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="523">
       <c r="A523" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B523" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="524">
       <c r="A524" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B524" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="525">
       <c r="A525" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B525" s="0" t="s">
         <v>1053</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="526">
       <c r="A526" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B526" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="527">
       <c r="A527" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B527" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="B527" s="0" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="528">
       <c r="A528" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B528" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="B528" s="0" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="529">
       <c r="A529" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B529" s="0" t="s">
         <v>1061</v>
-      </c>
-      <c r="B529" s="0" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="530">
       <c r="A530" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B530" s="0" t="s">
         <v>1063</v>
-      </c>
-      <c r="B530" s="0" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="531">
       <c r="A531" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B531" s="0" t="s">
         <v>1065</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="532">
       <c r="A532" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B532" s="0" t="s">
         <v>1067</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="533">
       <c r="A533" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B533" s="0" t="s">
         <v>1069</v>
-      </c>
-      <c r="B533" s="0" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="534">
       <c r="A534" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B534" s="0" t="s">
         <v>1071</v>
-      </c>
-      <c r="B534" s="0" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="535">
       <c r="A535" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B535" s="0" t="s">
         <v>1073</v>
-      </c>
-      <c r="B535" s="0" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="536">
       <c r="A536" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B536" s="0" t="s">
         <v>1075</v>
-      </c>
-      <c r="B536" s="0" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="537">
       <c r="A537" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B537" s="0" t="s">
         <v>1077</v>
-      </c>
-      <c r="B537" s="0" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="538">
       <c r="A538" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B538" s="0" t="s">
         <v>1079</v>
-      </c>
-      <c r="B538" s="0" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="539">
       <c r="A539" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B539" s="0" t="s">
         <v>1081</v>
-      </c>
-      <c r="B539" s="0" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="540">
       <c r="A540" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B540" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="B540" s="0" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="541">
       <c r="A541" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B541" s="0" t="s">
         <v>1085</v>
-      </c>
-      <c r="B541" s="0" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="542">
       <c r="A542" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B542" s="0" t="s">
         <v>1087</v>
-      </c>
-      <c r="B542" s="0" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="543">
       <c r="A543" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B543" s="0" t="s">
         <v>1089</v>
-      </c>
-      <c r="B543" s="0" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="544">
       <c r="A544" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B544" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="B544" s="0" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="545">
       <c r="A545" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B545" s="0" t="s">
         <v>1093</v>
-      </c>
-      <c r="B545" s="0" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="546">
       <c r="A546" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B546" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="B546" s="0" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="547">
       <c r="A547" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B547" s="0" t="s">
         <v>1097</v>
-      </c>
-      <c r="B547" s="0" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="548">
       <c r="A548" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B548" s="0" t="s">
         <v>1099</v>
-      </c>
-      <c r="B548" s="0" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="549">
       <c r="A549" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B549" s="0" t="s">
         <v>1101</v>
-      </c>
-      <c r="B549" s="0" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="550">
       <c r="A550" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B550" s="0" t="s">
         <v>1103</v>
-      </c>
-      <c r="B550" s="0" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="551">
       <c r="A551" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B551" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="B551" s="0" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="552">
       <c r="A552" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B552" s="0" t="s">
         <v>1107</v>
-      </c>
-      <c r="B552" s="0" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="553">
       <c r="A553" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B553" s="0" t="s">
         <v>1109</v>
-      </c>
-      <c r="B553" s="0" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="554">
       <c r="A554" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B554" s="0" t="s">
         <v>1111</v>
-      </c>
-      <c r="B554" s="0" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="555">
       <c r="A555" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B555" s="0" t="s">
         <v>1113</v>
-      </c>
-      <c r="B555" s="0" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="556">
       <c r="A556" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B556" s="0" t="s">
         <v>1115</v>
-      </c>
-      <c r="B556" s="0" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="557">
       <c r="A557" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B557" s="0" t="s">
         <v>1117</v>
-      </c>
-      <c r="B557" s="0" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="558">
       <c r="A558" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B558" s="0" t="s">
         <v>1119</v>
-      </c>
-      <c r="B558" s="0" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="559">
       <c r="A559" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B559" s="0" t="s">
         <v>1121</v>
-      </c>
-      <c r="B559" s="0" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="560">
       <c r="A560" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B560" s="0" t="s">
         <v>1123</v>
-      </c>
-      <c r="B560" s="0" t="s">
-        <v>1124</v>
       </c>
     </row>
   </sheetData>

--- a/data/orgs_manual_coding_sample_am.xlsx
+++ b/data/orgs_manual_coding_sample_am.xlsx
@@ -3587,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:E560"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A405" view="normal" windowProtection="false" workbookViewId="0" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100">
-      <selection activeCell="C437" activeCellId="0" pane="topLeft" sqref="C437"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A397" view="normal" windowProtection="false" workbookViewId="0" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100">
+      <selection activeCell="C397" activeCellId="0" pane="topLeft" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8350,6 +8350,9 @@
       <c r="B438" s="0" t="s">
         <v>879</v>
       </c>
+      <c r="C438" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="439">
       <c r="A439" s="1" t="s">
@@ -8358,6 +8361,9 @@
       <c r="B439" s="0" t="s">
         <v>881</v>
       </c>
+      <c r="C439" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="440">
       <c r="A440" s="1" t="s">
@@ -8366,6 +8372,9 @@
       <c r="B440" s="0" t="s">
         <v>883</v>
       </c>
+      <c r="C440" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="441">
       <c r="A441" s="1" t="s">
@@ -8374,6 +8383,9 @@
       <c r="B441" s="0" t="s">
         <v>885</v>
       </c>
+      <c r="C441" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="442">
       <c r="A442" s="1" t="s">
@@ -8382,6 +8394,9 @@
       <c r="B442" s="0" t="s">
         <v>887</v>
       </c>
+      <c r="C442" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="443">
       <c r="A443" s="1" t="s">
@@ -8390,6 +8405,9 @@
       <c r="B443" s="0" t="s">
         <v>889</v>
       </c>
+      <c r="C443" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="444">
       <c r="A444" s="1" t="s">
@@ -8398,6 +8416,9 @@
       <c r="B444" s="0" t="s">
         <v>891</v>
       </c>
+      <c r="C444" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="445">
       <c r="A445" s="1" t="s">
@@ -8414,6 +8435,9 @@
       <c r="B446" s="0" t="s">
         <v>895</v>
       </c>
+      <c r="C446" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="447">
       <c r="A447" s="1" t="s">
@@ -8422,6 +8446,9 @@
       <c r="B447" s="0" t="s">
         <v>897</v>
       </c>
+      <c r="C447" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="448">
       <c r="A448" s="1" t="s">
@@ -8430,6 +8457,9 @@
       <c r="B448" s="0" t="s">
         <v>899</v>
       </c>
+      <c r="C448" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="449">
       <c r="A449" s="1" t="s">
@@ -8438,6 +8468,9 @@
       <c r="B449" s="0" t="s">
         <v>901</v>
       </c>
+      <c r="C449" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="450">
       <c r="A450" s="1" t="s">
@@ -8446,6 +8479,9 @@
       <c r="B450" s="0" t="s">
         <v>903</v>
       </c>
+      <c r="C450" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="451">
       <c r="A451" s="1" t="s">
@@ -8454,6 +8490,9 @@
       <c r="B451" s="0" t="s">
         <v>905</v>
       </c>
+      <c r="C451" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="452">
       <c r="A452" s="1" t="s">
@@ -8462,6 +8501,9 @@
       <c r="B452" s="0" t="s">
         <v>907</v>
       </c>
+      <c r="C452" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="453">
       <c r="A453" s="1" t="s">
@@ -8470,6 +8512,9 @@
       <c r="B453" s="0" t="s">
         <v>909</v>
       </c>
+      <c r="C453" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="454">
       <c r="A454" s="1" t="s">
@@ -8486,6 +8531,9 @@
       <c r="B455" s="0" t="s">
         <v>913</v>
       </c>
+      <c r="C455" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="456">
       <c r="A456" s="1" t="s">
@@ -8494,6 +8542,9 @@
       <c r="B456" s="0" t="s">
         <v>915</v>
       </c>
+      <c r="C456" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="457">
       <c r="A457" s="1" t="s">
@@ -8502,6 +8553,9 @@
       <c r="B457" s="0" t="s">
         <v>917</v>
       </c>
+      <c r="C457" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="458">
       <c r="A458" s="1" t="s">
@@ -8510,6 +8564,9 @@
       <c r="B458" s="0" t="s">
         <v>919</v>
       </c>
+      <c r="C458" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="459">
       <c r="A459" s="1" t="s">
@@ -8518,6 +8575,9 @@
       <c r="B459" s="0" t="s">
         <v>921</v>
       </c>
+      <c r="C459" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="460">
       <c r="A460" s="1" t="s">
@@ -8526,6 +8586,9 @@
       <c r="B460" s="0" t="s">
         <v>923</v>
       </c>
+      <c r="C460" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="461">
       <c r="A461" s="1" t="s">
@@ -8534,6 +8597,9 @@
       <c r="B461" s="0" t="s">
         <v>925</v>
       </c>
+      <c r="C461" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="462">
       <c r="A462" s="1" t="s">
@@ -8542,6 +8608,9 @@
       <c r="B462" s="0" t="s">
         <v>927</v>
       </c>
+      <c r="C462" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="463">
       <c r="A463" s="1" t="s">
@@ -8550,6 +8619,9 @@
       <c r="B463" s="0" t="s">
         <v>929</v>
       </c>
+      <c r="C463" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="464">
       <c r="A464" s="1" t="s">
@@ -8558,6 +8630,9 @@
       <c r="B464" s="0" t="s">
         <v>931</v>
       </c>
+      <c r="C464" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="465">
       <c r="A465" s="1" t="s">
@@ -8566,6 +8641,9 @@
       <c r="B465" s="0" t="s">
         <v>933</v>
       </c>
+      <c r="C465" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="466">
       <c r="A466" s="1" t="s">
@@ -8574,6 +8652,9 @@
       <c r="B466" s="0" t="s">
         <v>935</v>
       </c>
+      <c r="C466" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="467">
       <c r="A467" s="1" t="s">
@@ -8582,6 +8663,9 @@
       <c r="B467" s="0" t="s">
         <v>937</v>
       </c>
+      <c r="C467" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="468">
       <c r="A468" s="1" t="s">
@@ -8590,6 +8674,9 @@
       <c r="B468" s="0" t="s">
         <v>939</v>
       </c>
+      <c r="C468" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="469">
       <c r="A469" s="1" t="s">
@@ -8598,6 +8685,9 @@
       <c r="B469" s="0" t="s">
         <v>941</v>
       </c>
+      <c r="C469" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="470">
       <c r="A470" s="1" t="s">
@@ -8606,6 +8696,9 @@
       <c r="B470" s="0" t="s">
         <v>943</v>
       </c>
+      <c r="C470" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="471">
       <c r="A471" s="1" t="s">
@@ -8614,6 +8707,9 @@
       <c r="B471" s="0" t="s">
         <v>945</v>
       </c>
+      <c r="C471" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="472">
       <c r="A472" s="1" t="s">
@@ -8622,6 +8718,9 @@
       <c r="B472" s="0" t="s">
         <v>947</v>
       </c>
+      <c r="C472" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="473">
       <c r="A473" s="1" t="s">
@@ -8630,6 +8729,9 @@
       <c r="B473" s="0" t="s">
         <v>949</v>
       </c>
+      <c r="C473" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="474">
       <c r="A474" s="1" t="s">
@@ -8638,6 +8740,9 @@
       <c r="B474" s="0" t="s">
         <v>951</v>
       </c>
+      <c r="C474" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="475">
       <c r="A475" s="1" t="s">
@@ -8646,6 +8751,9 @@
       <c r="B475" s="0" t="s">
         <v>953</v>
       </c>
+      <c r="C475" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="476">
       <c r="A476" s="1" t="s">
@@ -8654,6 +8762,9 @@
       <c r="B476" s="0" t="s">
         <v>955</v>
       </c>
+      <c r="C476" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="477">
       <c r="A477" s="1" t="s">
@@ -8662,6 +8773,9 @@
       <c r="B477" s="0" t="s">
         <v>957</v>
       </c>
+      <c r="C477" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="478">
       <c r="A478" s="1" t="s">
@@ -8670,6 +8784,9 @@
       <c r="B478" s="0" t="s">
         <v>959</v>
       </c>
+      <c r="C478" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="479">
       <c r="A479" s="1" t="s">
@@ -8678,6 +8795,9 @@
       <c r="B479" s="0" t="s">
         <v>961</v>
       </c>
+      <c r="C479" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="480">
       <c r="A480" s="1" t="s">
@@ -8686,6 +8806,9 @@
       <c r="B480" s="0" t="s">
         <v>963</v>
       </c>
+      <c r="C480" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="481">
       <c r="A481" s="1" t="s">
@@ -8694,6 +8817,9 @@
       <c r="B481" s="0" t="s">
         <v>965</v>
       </c>
+      <c r="C481" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="482">
       <c r="A482" s="1" t="s">
@@ -8702,6 +8828,9 @@
       <c r="B482" s="0" t="s">
         <v>967</v>
       </c>
+      <c r="C482" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="483">
       <c r="A483" s="1" t="s">
@@ -8710,6 +8839,9 @@
       <c r="B483" s="0" t="s">
         <v>969</v>
       </c>
+      <c r="C483" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="484">
       <c r="A484" s="1" t="s">
@@ -8718,6 +8850,9 @@
       <c r="B484" s="0" t="s">
         <v>971</v>
       </c>
+      <c r="C484" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="485">
       <c r="A485" s="1" t="s">
@@ -8726,6 +8861,9 @@
       <c r="B485" s="0" t="s">
         <v>973</v>
       </c>
+      <c r="C485" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="486">
       <c r="A486" s="1" t="s">
@@ -8734,6 +8872,9 @@
       <c r="B486" s="0" t="s">
         <v>975</v>
       </c>
+      <c r="C486" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="487">
       <c r="A487" s="1" t="s">
@@ -8742,6 +8883,9 @@
       <c r="B487" s="0" t="s">
         <v>977</v>
       </c>
+      <c r="C487" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="488">
       <c r="A488" s="1" t="s">
@@ -8750,6 +8894,9 @@
       <c r="B488" s="0" t="s">
         <v>979</v>
       </c>
+      <c r="C488" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="489">
       <c r="A489" s="1" t="s">
@@ -8758,6 +8905,9 @@
       <c r="B489" s="0" t="s">
         <v>981</v>
       </c>
+      <c r="C489" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="490">
       <c r="A490" s="1" t="s">
@@ -8766,6 +8916,9 @@
       <c r="B490" s="0" t="s">
         <v>983</v>
       </c>
+      <c r="C490" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="491">
       <c r="A491" s="1" t="s">
@@ -8774,6 +8927,9 @@
       <c r="B491" s="0" t="s">
         <v>985</v>
       </c>
+      <c r="C491" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="492">
       <c r="A492" s="1" t="s">
@@ -8782,6 +8938,9 @@
       <c r="B492" s="0" t="s">
         <v>987</v>
       </c>
+      <c r="C492" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="493">
       <c r="A493" s="1" t="s">
@@ -8790,6 +8949,9 @@
       <c r="B493" s="0" t="s">
         <v>989</v>
       </c>
+      <c r="C493" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="494">
       <c r="A494" s="1" t="s">
@@ -8798,6 +8960,9 @@
       <c r="B494" s="0" t="s">
         <v>991</v>
       </c>
+      <c r="C494" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="495">
       <c r="A495" s="1" t="s">
@@ -8806,6 +8971,9 @@
       <c r="B495" s="0" t="s">
         <v>993</v>
       </c>
+      <c r="C495" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="496">
       <c r="A496" s="1" t="s">
@@ -8814,6 +8982,9 @@
       <c r="B496" s="0" t="s">
         <v>995</v>
       </c>
+      <c r="C496" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="497">
       <c r="A497" s="1" t="s">
@@ -8822,6 +8993,9 @@
       <c r="B497" s="0" t="s">
         <v>997</v>
       </c>
+      <c r="C497" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="498">
       <c r="A498" s="1" t="s">
@@ -8830,6 +9004,9 @@
       <c r="B498" s="0" t="s">
         <v>999</v>
       </c>
+      <c r="C498" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="499">
       <c r="A499" s="1" t="s">
@@ -8838,6 +9015,9 @@
       <c r="B499" s="0" t="s">
         <v>1001</v>
       </c>
+      <c r="C499" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="500">
       <c r="A500" s="1" t="s">
@@ -8854,6 +9034,9 @@
       <c r="B501" s="0" t="s">
         <v>1005</v>
       </c>
+      <c r="C501" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="502">
       <c r="A502" s="1" t="s">
@@ -8862,6 +9045,9 @@
       <c r="B502" s="0" t="s">
         <v>1007</v>
       </c>
+      <c r="C502" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="503">
       <c r="A503" s="1" t="s">
@@ -8870,6 +9056,9 @@
       <c r="B503" s="0" t="s">
         <v>1009</v>
       </c>
+      <c r="C503" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="504">
       <c r="A504" s="1" t="s">
@@ -8878,6 +9067,9 @@
       <c r="B504" s="0" t="s">
         <v>1011</v>
       </c>
+      <c r="C504" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="505">
       <c r="A505" s="1" t="s">
@@ -8886,6 +9078,9 @@
       <c r="B505" s="0" t="s">
         <v>1013</v>
       </c>
+      <c r="C505" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="506">
       <c r="A506" s="1" t="s">
@@ -8894,6 +9089,9 @@
       <c r="B506" s="0" t="s">
         <v>1015</v>
       </c>
+      <c r="C506" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="507">
       <c r="A507" s="1" t="s">
@@ -8902,6 +9100,9 @@
       <c r="B507" s="0" t="s">
         <v>1017</v>
       </c>
+      <c r="C507" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="508">
       <c r="A508" s="1" t="s">
@@ -8910,6 +9111,9 @@
       <c r="B508" s="0" t="s">
         <v>1019</v>
       </c>
+      <c r="C508" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="509">
       <c r="A509" s="1" t="s">
@@ -8918,6 +9122,9 @@
       <c r="B509" s="0" t="s">
         <v>1021</v>
       </c>
+      <c r="C509" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="510">
       <c r="A510" s="1" t="s">
@@ -8926,6 +9133,9 @@
       <c r="B510" s="0" t="s">
         <v>1023</v>
       </c>
+      <c r="C510" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="511">
       <c r="A511" s="1" t="s">
@@ -8934,6 +9144,9 @@
       <c r="B511" s="0" t="s">
         <v>1025</v>
       </c>
+      <c r="C511" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="512">
       <c r="A512" s="1" t="s">
@@ -8942,6 +9155,9 @@
       <c r="B512" s="0" t="s">
         <v>1027</v>
       </c>
+      <c r="C512" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="513">
       <c r="A513" s="1" t="s">
@@ -8950,6 +9166,9 @@
       <c r="B513" s="0" t="s">
         <v>1029</v>
       </c>
+      <c r="C513" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="514">
       <c r="A514" s="1" t="s">
@@ -8958,6 +9177,9 @@
       <c r="B514" s="0" t="s">
         <v>1031</v>
       </c>
+      <c r="C514" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="515">
       <c r="A515" s="1" t="s">
@@ -8966,6 +9188,9 @@
       <c r="B515" s="0" t="s">
         <v>1033</v>
       </c>
+      <c r="C515" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="516">
       <c r="A516" s="1" t="s">
@@ -8982,6 +9207,9 @@
       <c r="B517" s="0" t="s">
         <v>1037</v>
       </c>
+      <c r="C517" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="518">
       <c r="A518" s="1" t="s">
@@ -8990,6 +9218,9 @@
       <c r="B518" s="0" t="s">
         <v>1039</v>
       </c>
+      <c r="C518" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="519">
       <c r="A519" s="1" t="s">
@@ -8998,6 +9229,9 @@
       <c r="B519" s="0" t="s">
         <v>1041</v>
       </c>
+      <c r="C519" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="520">
       <c r="A520" s="1" t="s">
@@ -9006,6 +9240,9 @@
       <c r="B520" s="0" t="s">
         <v>1043</v>
       </c>
+      <c r="C520" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="521">
       <c r="A521" s="1" t="s">
@@ -9014,6 +9251,9 @@
       <c r="B521" s="0" t="s">
         <v>1045</v>
       </c>
+      <c r="C521" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="522">
       <c r="A522" s="1" t="s">
@@ -9022,6 +9262,9 @@
       <c r="B522" s="0" t="s">
         <v>1047</v>
       </c>
+      <c r="C522" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="523">
       <c r="A523" s="1" t="s">
@@ -9030,6 +9273,9 @@
       <c r="B523" s="0" t="s">
         <v>1049</v>
       </c>
+      <c r="C523" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="524">
       <c r="A524" s="1" t="s">
@@ -9046,6 +9292,9 @@
       <c r="B525" s="0" t="s">
         <v>1053</v>
       </c>
+      <c r="C525" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="526">
       <c r="A526" s="1" t="s">
@@ -9054,6 +9303,9 @@
       <c r="B526" s="0" t="s">
         <v>1055</v>
       </c>
+      <c r="C526" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="527">
       <c r="A527" s="1" t="s">
@@ -9062,6 +9314,9 @@
       <c r="B527" s="0" t="s">
         <v>1057</v>
       </c>
+      <c r="C527" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="528">
       <c r="A528" s="1" t="s">
@@ -9070,6 +9325,9 @@
       <c r="B528" s="0" t="s">
         <v>1059</v>
       </c>
+      <c r="C528" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="529">
       <c r="A529" s="1" t="s">
@@ -9078,6 +9336,9 @@
       <c r="B529" s="0" t="s">
         <v>1061</v>
       </c>
+      <c r="C529" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="530">
       <c r="A530" s="1" t="s">
@@ -9086,6 +9347,9 @@
       <c r="B530" s="0" t="s">
         <v>1063</v>
       </c>
+      <c r="C530" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="531">
       <c r="A531" s="1" t="s">
@@ -9094,6 +9358,9 @@
       <c r="B531" s="0" t="s">
         <v>1065</v>
       </c>
+      <c r="C531" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="532">
       <c r="A532" s="1" t="s">
@@ -9102,6 +9369,9 @@
       <c r="B532" s="0" t="s">
         <v>1067</v>
       </c>
+      <c r="C532" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="533">
       <c r="A533" s="1" t="s">
@@ -9110,6 +9380,9 @@
       <c r="B533" s="0" t="s">
         <v>1069</v>
       </c>
+      <c r="C533" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="534">
       <c r="A534" s="1" t="s">
@@ -9126,6 +9399,9 @@
       <c r="B535" s="0" t="s">
         <v>1073</v>
       </c>
+      <c r="C535" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="536">
       <c r="A536" s="1" t="s">
@@ -9134,6 +9410,9 @@
       <c r="B536" s="0" t="s">
         <v>1075</v>
       </c>
+      <c r="C536" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="537">
       <c r="A537" s="1" t="s">
@@ -9142,6 +9421,9 @@
       <c r="B537" s="0" t="s">
         <v>1077</v>
       </c>
+      <c r="C537" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="538">
       <c r="A538" s="1" t="s">
@@ -9150,6 +9432,9 @@
       <c r="B538" s="0" t="s">
         <v>1079</v>
       </c>
+      <c r="C538" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="539">
       <c r="A539" s="1" t="s">
@@ -9158,6 +9443,9 @@
       <c r="B539" s="0" t="s">
         <v>1081</v>
       </c>
+      <c r="C539" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="540">
       <c r="A540" s="1" t="s">
@@ -9166,6 +9454,9 @@
       <c r="B540" s="0" t="s">
         <v>1083</v>
       </c>
+      <c r="C540" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="541">
       <c r="A541" s="1" t="s">
@@ -9174,6 +9465,9 @@
       <c r="B541" s="0" t="s">
         <v>1085</v>
       </c>
+      <c r="C541" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="542">
       <c r="A542" s="1" t="s">
@@ -9182,6 +9476,9 @@
       <c r="B542" s="0" t="s">
         <v>1087</v>
       </c>
+      <c r="C542" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="543">
       <c r="A543" s="1" t="s">
@@ -9190,6 +9487,9 @@
       <c r="B543" s="0" t="s">
         <v>1089</v>
       </c>
+      <c r="C543" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="544">
       <c r="A544" s="1" t="s">
@@ -9198,6 +9498,9 @@
       <c r="B544" s="0" t="s">
         <v>1091</v>
       </c>
+      <c r="C544" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="545">
       <c r="A545" s="1" t="s">
@@ -9206,6 +9509,9 @@
       <c r="B545" s="0" t="s">
         <v>1093</v>
       </c>
+      <c r="C545" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="546">
       <c r="A546" s="1" t="s">
@@ -9214,6 +9520,9 @@
       <c r="B546" s="0" t="s">
         <v>1095</v>
       </c>
+      <c r="C546" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="547">
       <c r="A547" s="1" t="s">
@@ -9222,6 +9531,9 @@
       <c r="B547" s="0" t="s">
         <v>1097</v>
       </c>
+      <c r="C547" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="548">
       <c r="A548" s="1" t="s">
@@ -9230,6 +9542,9 @@
       <c r="B548" s="0" t="s">
         <v>1099</v>
       </c>
+      <c r="C548" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="549">
       <c r="A549" s="1" t="s">
@@ -9238,6 +9553,9 @@
       <c r="B549" s="0" t="s">
         <v>1101</v>
       </c>
+      <c r="C549" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="550">
       <c r="A550" s="1" t="s">
@@ -9246,6 +9564,9 @@
       <c r="B550" s="0" t="s">
         <v>1103</v>
       </c>
+      <c r="C550" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="551">
       <c r="A551" s="1" t="s">
@@ -9254,6 +9575,9 @@
       <c r="B551" s="0" t="s">
         <v>1105</v>
       </c>
+      <c r="C551" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="552">
       <c r="A552" s="1" t="s">
@@ -9262,6 +9586,9 @@
       <c r="B552" s="0" t="s">
         <v>1107</v>
       </c>
+      <c r="C552" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="553">
       <c r="A553" s="1" t="s">
@@ -9270,6 +9597,9 @@
       <c r="B553" s="0" t="s">
         <v>1109</v>
       </c>
+      <c r="C553" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="554">
       <c r="A554" s="1" t="s">
@@ -9278,6 +9608,9 @@
       <c r="B554" s="0" t="s">
         <v>1111</v>
       </c>
+      <c r="C554" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="555">
       <c r="A555" s="1" t="s">
@@ -9286,6 +9619,9 @@
       <c r="B555" s="0" t="s">
         <v>1113</v>
       </c>
+      <c r="C555" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="556">
       <c r="A556" s="1" t="s">
@@ -9294,6 +9630,9 @@
       <c r="B556" s="0" t="s">
         <v>1115</v>
       </c>
+      <c r="C556" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="557">
       <c r="A557" s="1" t="s">
@@ -9302,6 +9641,9 @@
       <c r="B557" s="0" t="s">
         <v>1117</v>
       </c>
+      <c r="C557" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="558">
       <c r="A558" s="1" t="s">
@@ -9310,6 +9652,9 @@
       <c r="B558" s="0" t="s">
         <v>1119</v>
       </c>
+      <c r="C558" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="559">
       <c r="A559" s="1" t="s">
@@ -9318,6 +9663,9 @@
       <c r="B559" s="0" t="s">
         <v>1121</v>
       </c>
+      <c r="C559" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="560">
       <c r="A560" s="1" t="s">
@@ -9325,6 +9673,9 @@
       </c>
       <c r="B560" s="0" t="s">
         <v>1123</v>
+      </c>
+      <c r="C560" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
